--- a/Mussel dots/Mussel from monitoring in Kandalaksha.xlsx
+++ b/Mussel dots/Mussel from monitoring in Kandalaksha.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="16">
   <si>
     <t>Year</t>
   </si>
@@ -54,16 +54,25 @@
   <si>
     <t>Ryazh</t>
   </si>
+  <si>
+    <t>F16_F20</t>
+  </si>
+  <si>
+    <t>Ryazh25</t>
+  </si>
+  <si>
+    <t>Pesch1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -82,13 +91,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -98,7 +100,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,6 +154,35 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -122,7 +191,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,73 +220,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -227,13 +236,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,7 +260,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,55 +368,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,7 +386,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,79 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,7 +434,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -441,6 +461,39 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,56 +527,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -532,10 +541,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -547,124 +556,124 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -991,12 +1000,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F299"/>
+  <dimension ref="A1:F489"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A462" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="B489" sqref="B489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -6985,6 +6994,3806 @@
         <v>9</v>
       </c>
     </row>
+    <row r="300" spans="1:6">
+      <c r="A300">
+        <v>2011</v>
+      </c>
+      <c r="B300" t="s">
+        <v>6</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+      <c r="D300" t="s">
+        <v>13</v>
+      </c>
+      <c r="E300">
+        <v>16</v>
+      </c>
+      <c r="F300" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301">
+        <v>2011</v>
+      </c>
+      <c r="B301" t="s">
+        <v>6</v>
+      </c>
+      <c r="C301">
+        <v>2</v>
+      </c>
+      <c r="D301" t="s">
+        <v>13</v>
+      </c>
+      <c r="E301">
+        <v>57</v>
+      </c>
+      <c r="F301" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302">
+        <v>2011</v>
+      </c>
+      <c r="B302" t="s">
+        <v>6</v>
+      </c>
+      <c r="C302">
+        <v>3</v>
+      </c>
+      <c r="D302" t="s">
+        <v>13</v>
+      </c>
+      <c r="E302">
+        <v>5</v>
+      </c>
+      <c r="F302" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303">
+        <v>2011</v>
+      </c>
+      <c r="B303" t="s">
+        <v>6</v>
+      </c>
+      <c r="C303">
+        <v>4</v>
+      </c>
+      <c r="D303" t="s">
+        <v>13</v>
+      </c>
+      <c r="E303">
+        <v>46</v>
+      </c>
+      <c r="F303" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304">
+        <v>2011</v>
+      </c>
+      <c r="B304" t="s">
+        <v>6</v>
+      </c>
+      <c r="C304">
+        <v>5</v>
+      </c>
+      <c r="D304" t="s">
+        <v>13</v>
+      </c>
+      <c r="E304">
+        <v>19</v>
+      </c>
+      <c r="F304" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305">
+        <v>2011</v>
+      </c>
+      <c r="B305" t="s">
+        <v>6</v>
+      </c>
+      <c r="C305">
+        <v>6</v>
+      </c>
+      <c r="D305" t="s">
+        <v>13</v>
+      </c>
+      <c r="E305">
+        <v>63</v>
+      </c>
+      <c r="F305" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306">
+        <v>2011</v>
+      </c>
+      <c r="B306" t="s">
+        <v>6</v>
+      </c>
+      <c r="C306">
+        <v>7</v>
+      </c>
+      <c r="D306" t="s">
+        <v>13</v>
+      </c>
+      <c r="E306">
+        <v>7</v>
+      </c>
+      <c r="F306" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307">
+        <v>2011</v>
+      </c>
+      <c r="B307" t="s">
+        <v>6</v>
+      </c>
+      <c r="C307">
+        <v>8</v>
+      </c>
+      <c r="D307" t="s">
+        <v>13</v>
+      </c>
+      <c r="E307">
+        <v>2</v>
+      </c>
+      <c r="F307" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308">
+        <v>2011</v>
+      </c>
+      <c r="B308" t="s">
+        <v>6</v>
+      </c>
+      <c r="C308">
+        <v>9</v>
+      </c>
+      <c r="D308" t="s">
+        <v>13</v>
+      </c>
+      <c r="E308">
+        <v>17</v>
+      </c>
+      <c r="F308" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309">
+        <v>2011</v>
+      </c>
+      <c r="B309" t="s">
+        <v>6</v>
+      </c>
+      <c r="C309">
+        <v>10</v>
+      </c>
+      <c r="D309" t="s">
+        <v>13</v>
+      </c>
+      <c r="E309">
+        <v>8</v>
+      </c>
+      <c r="F309" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="A310">
+        <v>2011</v>
+      </c>
+      <c r="B310" t="s">
+        <v>6</v>
+      </c>
+      <c r="C310">
+        <v>11</v>
+      </c>
+      <c r="D310" t="s">
+        <v>13</v>
+      </c>
+      <c r="E310">
+        <v>16</v>
+      </c>
+      <c r="F310" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="A311">
+        <v>2011</v>
+      </c>
+      <c r="B311" t="s">
+        <v>6</v>
+      </c>
+      <c r="C311">
+        <v>12</v>
+      </c>
+      <c r="D311" t="s">
+        <v>13</v>
+      </c>
+      <c r="E311">
+        <v>25</v>
+      </c>
+      <c r="F311" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312">
+        <v>2011</v>
+      </c>
+      <c r="B312" t="s">
+        <v>6</v>
+      </c>
+      <c r="C312">
+        <v>13</v>
+      </c>
+      <c r="D312" t="s">
+        <v>13</v>
+      </c>
+      <c r="E312">
+        <v>11</v>
+      </c>
+      <c r="F312" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="A313">
+        <v>2011</v>
+      </c>
+      <c r="B313" t="s">
+        <v>6</v>
+      </c>
+      <c r="C313">
+        <v>14</v>
+      </c>
+      <c r="D313" t="s">
+        <v>13</v>
+      </c>
+      <c r="E313">
+        <v>3</v>
+      </c>
+      <c r="F313" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314">
+        <v>2011</v>
+      </c>
+      <c r="B314" t="s">
+        <v>6</v>
+      </c>
+      <c r="C314">
+        <v>15</v>
+      </c>
+      <c r="D314" t="s">
+        <v>13</v>
+      </c>
+      <c r="E314">
+        <v>7</v>
+      </c>
+      <c r="F314" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315">
+        <v>2011</v>
+      </c>
+      <c r="B315" t="s">
+        <v>6</v>
+      </c>
+      <c r="C315">
+        <v>16</v>
+      </c>
+      <c r="D315" t="s">
+        <v>13</v>
+      </c>
+      <c r="E315">
+        <v>23</v>
+      </c>
+      <c r="F315" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316">
+        <v>2011</v>
+      </c>
+      <c r="B316" t="s">
+        <v>6</v>
+      </c>
+      <c r="C316">
+        <v>17</v>
+      </c>
+      <c r="D316" t="s">
+        <v>13</v>
+      </c>
+      <c r="E316">
+        <v>5</v>
+      </c>
+      <c r="F316" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317">
+        <v>2011</v>
+      </c>
+      <c r="B317" t="s">
+        <v>6</v>
+      </c>
+      <c r="C317">
+        <v>18</v>
+      </c>
+      <c r="D317" t="s">
+        <v>13</v>
+      </c>
+      <c r="E317">
+        <v>19</v>
+      </c>
+      <c r="F317" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318">
+        <v>2011</v>
+      </c>
+      <c r="B318" t="s">
+        <v>6</v>
+      </c>
+      <c r="C318">
+        <v>19</v>
+      </c>
+      <c r="D318" t="s">
+        <v>13</v>
+      </c>
+      <c r="E318">
+        <v>3</v>
+      </c>
+      <c r="F318" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="A319">
+        <v>2011</v>
+      </c>
+      <c r="B319" t="s">
+        <v>6</v>
+      </c>
+      <c r="C319">
+        <v>20</v>
+      </c>
+      <c r="D319" t="s">
+        <v>13</v>
+      </c>
+      <c r="E319">
+        <v>9</v>
+      </c>
+      <c r="F319" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
+      <c r="A320">
+        <v>2011</v>
+      </c>
+      <c r="B320" t="s">
+        <v>6</v>
+      </c>
+      <c r="C320">
+        <v>21</v>
+      </c>
+      <c r="D320" t="s">
+        <v>13</v>
+      </c>
+      <c r="E320">
+        <v>10</v>
+      </c>
+      <c r="F320" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
+      <c r="A321">
+        <v>2011</v>
+      </c>
+      <c r="B321" t="s">
+        <v>6</v>
+      </c>
+      <c r="C321">
+        <v>22</v>
+      </c>
+      <c r="D321" t="s">
+        <v>13</v>
+      </c>
+      <c r="E321">
+        <v>3</v>
+      </c>
+      <c r="F321" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
+      <c r="A322">
+        <v>2011</v>
+      </c>
+      <c r="B322" t="s">
+        <v>6</v>
+      </c>
+      <c r="C322">
+        <v>23</v>
+      </c>
+      <c r="D322" t="s">
+        <v>13</v>
+      </c>
+      <c r="E322">
+        <v>19</v>
+      </c>
+      <c r="F322" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323">
+        <v>2011</v>
+      </c>
+      <c r="B323" t="s">
+        <v>6</v>
+      </c>
+      <c r="C323">
+        <v>24</v>
+      </c>
+      <c r="D323" t="s">
+        <v>13</v>
+      </c>
+      <c r="E323">
+        <v>20</v>
+      </c>
+      <c r="F323" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324">
+        <v>2011</v>
+      </c>
+      <c r="B324" t="s">
+        <v>6</v>
+      </c>
+      <c r="C324">
+        <v>25</v>
+      </c>
+      <c r="D324" t="s">
+        <v>13</v>
+      </c>
+      <c r="E324">
+        <v>33</v>
+      </c>
+      <c r="F324" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325">
+        <v>2011</v>
+      </c>
+      <c r="B325" t="s">
+        <v>6</v>
+      </c>
+      <c r="C325">
+        <v>26</v>
+      </c>
+      <c r="D325" t="s">
+        <v>13</v>
+      </c>
+      <c r="E325">
+        <v>21</v>
+      </c>
+      <c r="F325" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
+      <c r="A326">
+        <v>2011</v>
+      </c>
+      <c r="B326" t="s">
+        <v>6</v>
+      </c>
+      <c r="C326">
+        <v>27</v>
+      </c>
+      <c r="D326" t="s">
+        <v>13</v>
+      </c>
+      <c r="E326">
+        <v>7</v>
+      </c>
+      <c r="F326" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
+      <c r="A327">
+        <v>2011</v>
+      </c>
+      <c r="B327" t="s">
+        <v>6</v>
+      </c>
+      <c r="C327">
+        <v>28</v>
+      </c>
+      <c r="D327" t="s">
+        <v>13</v>
+      </c>
+      <c r="E327">
+        <v>8</v>
+      </c>
+      <c r="F327" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
+      <c r="A328">
+        <v>2011</v>
+      </c>
+      <c r="B328" t="s">
+        <v>6</v>
+      </c>
+      <c r="C328">
+        <v>29</v>
+      </c>
+      <c r="D328" t="s">
+        <v>13</v>
+      </c>
+      <c r="E328">
+        <v>4</v>
+      </c>
+      <c r="F328" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
+      <c r="A329">
+        <v>2011</v>
+      </c>
+      <c r="B329" t="s">
+        <v>6</v>
+      </c>
+      <c r="C329">
+        <v>30</v>
+      </c>
+      <c r="D329" t="s">
+        <v>13</v>
+      </c>
+      <c r="E329">
+        <v>3</v>
+      </c>
+      <c r="F329" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
+      <c r="A330">
+        <v>2011</v>
+      </c>
+      <c r="B330" t="s">
+        <v>6</v>
+      </c>
+      <c r="C330">
+        <v>31</v>
+      </c>
+      <c r="D330" t="s">
+        <v>13</v>
+      </c>
+      <c r="E330">
+        <v>35</v>
+      </c>
+      <c r="F330" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
+      <c r="A331">
+        <v>2011</v>
+      </c>
+      <c r="B331" t="s">
+        <v>6</v>
+      </c>
+      <c r="C331">
+        <v>32</v>
+      </c>
+      <c r="D331" t="s">
+        <v>13</v>
+      </c>
+      <c r="E331">
+        <v>21</v>
+      </c>
+      <c r="F331" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
+      <c r="A332">
+        <v>2011</v>
+      </c>
+      <c r="B332" t="s">
+        <v>6</v>
+      </c>
+      <c r="C332">
+        <v>33</v>
+      </c>
+      <c r="D332" t="s">
+        <v>13</v>
+      </c>
+      <c r="E332">
+        <v>31</v>
+      </c>
+      <c r="F332" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
+      <c r="A333">
+        <v>2011</v>
+      </c>
+      <c r="B333" t="s">
+        <v>6</v>
+      </c>
+      <c r="C333">
+        <v>34</v>
+      </c>
+      <c r="D333" t="s">
+        <v>13</v>
+      </c>
+      <c r="E333">
+        <v>44</v>
+      </c>
+      <c r="F333" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6">
+      <c r="A334">
+        <v>2011</v>
+      </c>
+      <c r="B334" t="s">
+        <v>6</v>
+      </c>
+      <c r="C334">
+        <v>35</v>
+      </c>
+      <c r="D334" t="s">
+        <v>13</v>
+      </c>
+      <c r="E334">
+        <v>30</v>
+      </c>
+      <c r="F334" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6">
+      <c r="A335">
+        <v>2011</v>
+      </c>
+      <c r="B335" t="s">
+        <v>6</v>
+      </c>
+      <c r="C335">
+        <v>36</v>
+      </c>
+      <c r="D335" t="s">
+        <v>13</v>
+      </c>
+      <c r="E335">
+        <v>24</v>
+      </c>
+      <c r="F335" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6">
+      <c r="A336">
+        <v>2011</v>
+      </c>
+      <c r="B336" t="s">
+        <v>6</v>
+      </c>
+      <c r="C336">
+        <v>37</v>
+      </c>
+      <c r="D336" t="s">
+        <v>13</v>
+      </c>
+      <c r="E336">
+        <v>57</v>
+      </c>
+      <c r="F336" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
+      <c r="A337">
+        <v>2011</v>
+      </c>
+      <c r="B337" t="s">
+        <v>6</v>
+      </c>
+      <c r="C337">
+        <v>38</v>
+      </c>
+      <c r="D337" t="s">
+        <v>13</v>
+      </c>
+      <c r="E337">
+        <v>21</v>
+      </c>
+      <c r="F337" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
+      <c r="A338">
+        <v>2011</v>
+      </c>
+      <c r="B338" t="s">
+        <v>6</v>
+      </c>
+      <c r="C338">
+        <v>39</v>
+      </c>
+      <c r="D338" t="s">
+        <v>13</v>
+      </c>
+      <c r="E338">
+        <v>8</v>
+      </c>
+      <c r="F338" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
+      <c r="A339">
+        <v>2011</v>
+      </c>
+      <c r="B339" t="s">
+        <v>6</v>
+      </c>
+      <c r="C339">
+        <v>40</v>
+      </c>
+      <c r="D339" t="s">
+        <v>13</v>
+      </c>
+      <c r="E339">
+        <v>35</v>
+      </c>
+      <c r="F339" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="A340">
+        <v>2011</v>
+      </c>
+      <c r="B340" t="s">
+        <v>6</v>
+      </c>
+      <c r="C340">
+        <v>41</v>
+      </c>
+      <c r="D340" t="s">
+        <v>13</v>
+      </c>
+      <c r="E340">
+        <v>17</v>
+      </c>
+      <c r="F340" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
+      <c r="A341">
+        <v>2011</v>
+      </c>
+      <c r="B341" t="s">
+        <v>6</v>
+      </c>
+      <c r="C341">
+        <v>42</v>
+      </c>
+      <c r="D341" t="s">
+        <v>13</v>
+      </c>
+      <c r="E341">
+        <v>44</v>
+      </c>
+      <c r="F341" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
+      <c r="A342">
+        <v>2011</v>
+      </c>
+      <c r="B342" t="s">
+        <v>6</v>
+      </c>
+      <c r="C342">
+        <v>43</v>
+      </c>
+      <c r="D342" t="s">
+        <v>13</v>
+      </c>
+      <c r="E342">
+        <v>15</v>
+      </c>
+      <c r="F342" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="A343">
+        <v>2011</v>
+      </c>
+      <c r="B343" t="s">
+        <v>6</v>
+      </c>
+      <c r="C343">
+        <v>44</v>
+      </c>
+      <c r="D343" t="s">
+        <v>13</v>
+      </c>
+      <c r="E343">
+        <v>0</v>
+      </c>
+      <c r="F343" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="A344">
+        <v>2011</v>
+      </c>
+      <c r="B344" t="s">
+        <v>6</v>
+      </c>
+      <c r="C344">
+        <v>45</v>
+      </c>
+      <c r="D344" t="s">
+        <v>13</v>
+      </c>
+      <c r="E344">
+        <v>2</v>
+      </c>
+      <c r="F344" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
+      <c r="A345">
+        <v>2011</v>
+      </c>
+      <c r="B345" t="s">
+        <v>6</v>
+      </c>
+      <c r="C345">
+        <v>46</v>
+      </c>
+      <c r="D345" t="s">
+        <v>13</v>
+      </c>
+      <c r="E345">
+        <v>7</v>
+      </c>
+      <c r="F345" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6">
+      <c r="A346">
+        <v>2011</v>
+      </c>
+      <c r="B346" t="s">
+        <v>6</v>
+      </c>
+      <c r="C346">
+        <v>47</v>
+      </c>
+      <c r="D346" t="s">
+        <v>13</v>
+      </c>
+      <c r="E346">
+        <v>3</v>
+      </c>
+      <c r="F346" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
+      <c r="A347">
+        <v>2011</v>
+      </c>
+      <c r="B347" t="s">
+        <v>6</v>
+      </c>
+      <c r="C347">
+        <v>48</v>
+      </c>
+      <c r="D347" t="s">
+        <v>13</v>
+      </c>
+      <c r="E347">
+        <v>0</v>
+      </c>
+      <c r="F347" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6">
+      <c r="A348">
+        <v>2011</v>
+      </c>
+      <c r="B348" t="s">
+        <v>6</v>
+      </c>
+      <c r="C348">
+        <v>49</v>
+      </c>
+      <c r="D348" t="s">
+        <v>13</v>
+      </c>
+      <c r="E348">
+        <v>12</v>
+      </c>
+      <c r="F348" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
+      <c r="A349">
+        <v>2011</v>
+      </c>
+      <c r="B349" t="s">
+        <v>6</v>
+      </c>
+      <c r="C349">
+        <v>50</v>
+      </c>
+      <c r="D349" t="s">
+        <v>13</v>
+      </c>
+      <c r="E349">
+        <v>42</v>
+      </c>
+      <c r="F349" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
+      <c r="A350">
+        <v>2011</v>
+      </c>
+      <c r="B350" t="s">
+        <v>6</v>
+      </c>
+      <c r="C350">
+        <v>51</v>
+      </c>
+      <c r="D350" t="s">
+        <v>13</v>
+      </c>
+      <c r="E350">
+        <v>15</v>
+      </c>
+      <c r="F350" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6">
+      <c r="A351">
+        <v>2011</v>
+      </c>
+      <c r="B351" t="s">
+        <v>6</v>
+      </c>
+      <c r="C351">
+        <v>52</v>
+      </c>
+      <c r="D351" t="s">
+        <v>13</v>
+      </c>
+      <c r="E351">
+        <v>4</v>
+      </c>
+      <c r="F351" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6">
+      <c r="A352">
+        <v>2011</v>
+      </c>
+      <c r="B352" t="s">
+        <v>6</v>
+      </c>
+      <c r="C352">
+        <v>53</v>
+      </c>
+      <c r="D352" t="s">
+        <v>13</v>
+      </c>
+      <c r="E352">
+        <v>0</v>
+      </c>
+      <c r="F352" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="A353">
+        <v>2011</v>
+      </c>
+      <c r="B353" t="s">
+        <v>6</v>
+      </c>
+      <c r="C353">
+        <v>54</v>
+      </c>
+      <c r="D353" t="s">
+        <v>13</v>
+      </c>
+      <c r="E353">
+        <v>10</v>
+      </c>
+      <c r="F353" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
+      <c r="A354">
+        <v>2011</v>
+      </c>
+      <c r="B354" t="s">
+        <v>6</v>
+      </c>
+      <c r="C354">
+        <v>55</v>
+      </c>
+      <c r="D354" t="s">
+        <v>13</v>
+      </c>
+      <c r="E354">
+        <v>13</v>
+      </c>
+      <c r="F354" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
+      <c r="A355">
+        <v>2011</v>
+      </c>
+      <c r="B355" t="s">
+        <v>6</v>
+      </c>
+      <c r="C355">
+        <v>56</v>
+      </c>
+      <c r="D355" t="s">
+        <v>13</v>
+      </c>
+      <c r="E355">
+        <v>26</v>
+      </c>
+      <c r="F355" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="A356">
+        <v>2011</v>
+      </c>
+      <c r="B356" t="s">
+        <v>6</v>
+      </c>
+      <c r="C356">
+        <v>57</v>
+      </c>
+      <c r="D356" t="s">
+        <v>13</v>
+      </c>
+      <c r="E356">
+        <v>11</v>
+      </c>
+      <c r="F356" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
+      <c r="A357">
+        <v>2011</v>
+      </c>
+      <c r="B357" t="s">
+        <v>6</v>
+      </c>
+      <c r="C357">
+        <v>58</v>
+      </c>
+      <c r="D357" t="s">
+        <v>13</v>
+      </c>
+      <c r="E357">
+        <v>25</v>
+      </c>
+      <c r="F357" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
+      <c r="A358">
+        <v>2011</v>
+      </c>
+      <c r="B358" t="s">
+        <v>6</v>
+      </c>
+      <c r="C358">
+        <v>59</v>
+      </c>
+      <c r="D358" t="s">
+        <v>13</v>
+      </c>
+      <c r="E358">
+        <v>18</v>
+      </c>
+      <c r="F358" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
+      <c r="A359">
+        <v>2011</v>
+      </c>
+      <c r="B359" t="s">
+        <v>6</v>
+      </c>
+      <c r="C359">
+        <v>60</v>
+      </c>
+      <c r="D359" t="s">
+        <v>13</v>
+      </c>
+      <c r="E359">
+        <v>10</v>
+      </c>
+      <c r="F359" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
+      <c r="A360">
+        <v>2011</v>
+      </c>
+      <c r="B360" t="s">
+        <v>6</v>
+      </c>
+      <c r="C360">
+        <v>61</v>
+      </c>
+      <c r="D360" t="s">
+        <v>13</v>
+      </c>
+      <c r="E360">
+        <v>8</v>
+      </c>
+      <c r="F360" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6">
+      <c r="A361">
+        <v>2011</v>
+      </c>
+      <c r="B361" t="s">
+        <v>6</v>
+      </c>
+      <c r="C361">
+        <v>62</v>
+      </c>
+      <c r="D361" t="s">
+        <v>13</v>
+      </c>
+      <c r="E361">
+        <v>83</v>
+      </c>
+      <c r="F361" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6">
+      <c r="A362">
+        <v>2011</v>
+      </c>
+      <c r="B362" t="s">
+        <v>6</v>
+      </c>
+      <c r="C362">
+        <v>63</v>
+      </c>
+      <c r="D362" t="s">
+        <v>13</v>
+      </c>
+      <c r="E362">
+        <v>10</v>
+      </c>
+      <c r="F362" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
+      <c r="A363">
+        <v>2011</v>
+      </c>
+      <c r="B363" t="s">
+        <v>6</v>
+      </c>
+      <c r="C363">
+        <v>64</v>
+      </c>
+      <c r="D363" t="s">
+        <v>13</v>
+      </c>
+      <c r="E363">
+        <v>33</v>
+      </c>
+      <c r="F363" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
+      <c r="A364">
+        <v>2011</v>
+      </c>
+      <c r="B364" t="s">
+        <v>6</v>
+      </c>
+      <c r="C364">
+        <v>65</v>
+      </c>
+      <c r="D364" t="s">
+        <v>13</v>
+      </c>
+      <c r="E364">
+        <v>11</v>
+      </c>
+      <c r="F364" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
+      <c r="A365">
+        <v>2011</v>
+      </c>
+      <c r="B365" t="s">
+        <v>6</v>
+      </c>
+      <c r="C365">
+        <v>66</v>
+      </c>
+      <c r="D365" t="s">
+        <v>13</v>
+      </c>
+      <c r="E365">
+        <v>22</v>
+      </c>
+      <c r="F365" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
+      <c r="A366">
+        <v>2011</v>
+      </c>
+      <c r="B366" t="s">
+        <v>6</v>
+      </c>
+      <c r="C366">
+        <v>67</v>
+      </c>
+      <c r="D366" t="s">
+        <v>13</v>
+      </c>
+      <c r="E366">
+        <v>22</v>
+      </c>
+      <c r="F366" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
+      <c r="A367">
+        <v>2011</v>
+      </c>
+      <c r="B367" t="s">
+        <v>6</v>
+      </c>
+      <c r="C367">
+        <v>68</v>
+      </c>
+      <c r="D367" t="s">
+        <v>13</v>
+      </c>
+      <c r="E367">
+        <v>65</v>
+      </c>
+      <c r="F367" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
+      <c r="A368">
+        <v>2011</v>
+      </c>
+      <c r="B368" t="s">
+        <v>6</v>
+      </c>
+      <c r="C368">
+        <v>69</v>
+      </c>
+      <c r="D368" t="s">
+        <v>13</v>
+      </c>
+      <c r="E368">
+        <v>4</v>
+      </c>
+      <c r="F368" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6">
+      <c r="A369">
+        <v>2011</v>
+      </c>
+      <c r="B369" t="s">
+        <v>6</v>
+      </c>
+      <c r="C369">
+        <v>70</v>
+      </c>
+      <c r="D369" t="s">
+        <v>13</v>
+      </c>
+      <c r="E369">
+        <v>0</v>
+      </c>
+      <c r="F369" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
+      <c r="A370">
+        <v>2012</v>
+      </c>
+      <c r="B370" t="s">
+        <v>6</v>
+      </c>
+      <c r="C370">
+        <v>1</v>
+      </c>
+      <c r="D370" t="s">
+        <v>14</v>
+      </c>
+      <c r="E370">
+        <v>1</v>
+      </c>
+      <c r="F370" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6">
+      <c r="A371">
+        <v>2012</v>
+      </c>
+      <c r="B371" t="s">
+        <v>6</v>
+      </c>
+      <c r="C371">
+        <v>2</v>
+      </c>
+      <c r="D371" t="s">
+        <v>14</v>
+      </c>
+      <c r="E371">
+        <v>18</v>
+      </c>
+      <c r="F371" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6">
+      <c r="A372">
+        <v>2012</v>
+      </c>
+      <c r="B372" t="s">
+        <v>6</v>
+      </c>
+      <c r="C372">
+        <v>3</v>
+      </c>
+      <c r="D372" t="s">
+        <v>14</v>
+      </c>
+      <c r="E372">
+        <v>11</v>
+      </c>
+      <c r="F372" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6">
+      <c r="A373">
+        <v>2012</v>
+      </c>
+      <c r="B373" t="s">
+        <v>6</v>
+      </c>
+      <c r="C373">
+        <v>4</v>
+      </c>
+      <c r="D373" t="s">
+        <v>14</v>
+      </c>
+      <c r="E373">
+        <v>13</v>
+      </c>
+      <c r="F373" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6">
+      <c r="A374">
+        <v>2012</v>
+      </c>
+      <c r="B374" t="s">
+        <v>6</v>
+      </c>
+      <c r="C374">
+        <v>5</v>
+      </c>
+      <c r="D374" t="s">
+        <v>14</v>
+      </c>
+      <c r="E374">
+        <v>8</v>
+      </c>
+      <c r="F374" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6">
+      <c r="A375">
+        <v>2012</v>
+      </c>
+      <c r="B375" t="s">
+        <v>6</v>
+      </c>
+      <c r="C375">
+        <v>6</v>
+      </c>
+      <c r="D375" t="s">
+        <v>14</v>
+      </c>
+      <c r="E375">
+        <v>5</v>
+      </c>
+      <c r="F375" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6">
+      <c r="A376">
+        <v>2012</v>
+      </c>
+      <c r="B376" t="s">
+        <v>6</v>
+      </c>
+      <c r="C376">
+        <v>7</v>
+      </c>
+      <c r="D376" t="s">
+        <v>14</v>
+      </c>
+      <c r="E376">
+        <v>13</v>
+      </c>
+      <c r="F376" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6">
+      <c r="A377">
+        <v>2012</v>
+      </c>
+      <c r="B377" t="s">
+        <v>6</v>
+      </c>
+      <c r="C377">
+        <v>8</v>
+      </c>
+      <c r="D377" t="s">
+        <v>14</v>
+      </c>
+      <c r="E377">
+        <v>19</v>
+      </c>
+      <c r="F377" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6">
+      <c r="A378">
+        <v>2012</v>
+      </c>
+      <c r="B378" t="s">
+        <v>6</v>
+      </c>
+      <c r="C378">
+        <v>9</v>
+      </c>
+      <c r="D378" t="s">
+        <v>14</v>
+      </c>
+      <c r="E378">
+        <v>72</v>
+      </c>
+      <c r="F378" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6">
+      <c r="A379">
+        <v>2012</v>
+      </c>
+      <c r="B379" t="s">
+        <v>6</v>
+      </c>
+      <c r="C379">
+        <v>10</v>
+      </c>
+      <c r="D379" t="s">
+        <v>14</v>
+      </c>
+      <c r="E379">
+        <v>24</v>
+      </c>
+      <c r="F379" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6">
+      <c r="A380">
+        <v>2012</v>
+      </c>
+      <c r="B380" t="s">
+        <v>6</v>
+      </c>
+      <c r="C380">
+        <v>11</v>
+      </c>
+      <c r="D380" t="s">
+        <v>14</v>
+      </c>
+      <c r="E380">
+        <v>9</v>
+      </c>
+      <c r="F380" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6">
+      <c r="A381">
+        <v>2012</v>
+      </c>
+      <c r="B381" t="s">
+        <v>6</v>
+      </c>
+      <c r="C381">
+        <v>12</v>
+      </c>
+      <c r="D381" t="s">
+        <v>14</v>
+      </c>
+      <c r="E381">
+        <v>9</v>
+      </c>
+      <c r="F381" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6">
+      <c r="A382">
+        <v>2012</v>
+      </c>
+      <c r="B382" t="s">
+        <v>6</v>
+      </c>
+      <c r="C382">
+        <v>13</v>
+      </c>
+      <c r="D382" t="s">
+        <v>14</v>
+      </c>
+      <c r="E382">
+        <v>8</v>
+      </c>
+      <c r="F382" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6">
+      <c r="A383">
+        <v>2012</v>
+      </c>
+      <c r="B383" t="s">
+        <v>6</v>
+      </c>
+      <c r="C383">
+        <v>14</v>
+      </c>
+      <c r="D383" t="s">
+        <v>14</v>
+      </c>
+      <c r="E383">
+        <v>0</v>
+      </c>
+      <c r="F383" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6">
+      <c r="A384">
+        <v>2012</v>
+      </c>
+      <c r="B384" t="s">
+        <v>6</v>
+      </c>
+      <c r="C384">
+        <v>15</v>
+      </c>
+      <c r="D384" t="s">
+        <v>14</v>
+      </c>
+      <c r="E384">
+        <v>6</v>
+      </c>
+      <c r="F384" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6">
+      <c r="A385">
+        <v>2012</v>
+      </c>
+      <c r="B385" t="s">
+        <v>6</v>
+      </c>
+      <c r="C385">
+        <v>16</v>
+      </c>
+      <c r="D385" t="s">
+        <v>14</v>
+      </c>
+      <c r="E385">
+        <v>11</v>
+      </c>
+      <c r="F385" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6">
+      <c r="A386">
+        <v>2012</v>
+      </c>
+      <c r="B386" t="s">
+        <v>6</v>
+      </c>
+      <c r="C386">
+        <v>17</v>
+      </c>
+      <c r="D386" t="s">
+        <v>14</v>
+      </c>
+      <c r="E386">
+        <v>6</v>
+      </c>
+      <c r="F386" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6">
+      <c r="A387">
+        <v>2012</v>
+      </c>
+      <c r="B387" t="s">
+        <v>6</v>
+      </c>
+      <c r="C387">
+        <v>18</v>
+      </c>
+      <c r="D387" t="s">
+        <v>14</v>
+      </c>
+      <c r="E387">
+        <v>6</v>
+      </c>
+      <c r="F387" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6">
+      <c r="A388">
+        <v>2012</v>
+      </c>
+      <c r="B388" t="s">
+        <v>6</v>
+      </c>
+      <c r="C388">
+        <v>19</v>
+      </c>
+      <c r="D388" t="s">
+        <v>14</v>
+      </c>
+      <c r="E388">
+        <v>3</v>
+      </c>
+      <c r="F388" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6">
+      <c r="A389">
+        <v>2012</v>
+      </c>
+      <c r="B389" t="s">
+        <v>6</v>
+      </c>
+      <c r="C389">
+        <v>20</v>
+      </c>
+      <c r="D389" t="s">
+        <v>14</v>
+      </c>
+      <c r="E389">
+        <v>39</v>
+      </c>
+      <c r="F389" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6">
+      <c r="A390">
+        <v>2012</v>
+      </c>
+      <c r="B390" t="s">
+        <v>6</v>
+      </c>
+      <c r="C390">
+        <v>21</v>
+      </c>
+      <c r="D390" t="s">
+        <v>14</v>
+      </c>
+      <c r="E390">
+        <v>0</v>
+      </c>
+      <c r="F390" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6">
+      <c r="A391">
+        <v>2012</v>
+      </c>
+      <c r="B391" t="s">
+        <v>6</v>
+      </c>
+      <c r="C391">
+        <v>22</v>
+      </c>
+      <c r="D391" t="s">
+        <v>14</v>
+      </c>
+      <c r="E391">
+        <v>20</v>
+      </c>
+      <c r="F391" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6">
+      <c r="A392">
+        <v>2012</v>
+      </c>
+      <c r="B392" t="s">
+        <v>6</v>
+      </c>
+      <c r="C392">
+        <v>23</v>
+      </c>
+      <c r="D392" t="s">
+        <v>14</v>
+      </c>
+      <c r="E392">
+        <v>9</v>
+      </c>
+      <c r="F392" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6">
+      <c r="A393">
+        <v>2012</v>
+      </c>
+      <c r="B393" t="s">
+        <v>6</v>
+      </c>
+      <c r="C393">
+        <v>24</v>
+      </c>
+      <c r="D393" t="s">
+        <v>14</v>
+      </c>
+      <c r="E393">
+        <v>9</v>
+      </c>
+      <c r="F393" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6">
+      <c r="A394">
+        <v>2012</v>
+      </c>
+      <c r="B394" t="s">
+        <v>6</v>
+      </c>
+      <c r="C394">
+        <v>25</v>
+      </c>
+      <c r="D394" t="s">
+        <v>14</v>
+      </c>
+      <c r="E394">
+        <v>49</v>
+      </c>
+      <c r="F394" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6">
+      <c r="A395">
+        <v>2012</v>
+      </c>
+      <c r="B395" t="s">
+        <v>6</v>
+      </c>
+      <c r="C395">
+        <v>26</v>
+      </c>
+      <c r="D395" t="s">
+        <v>14</v>
+      </c>
+      <c r="E395">
+        <v>3</v>
+      </c>
+      <c r="F395" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6">
+      <c r="A396">
+        <v>2012</v>
+      </c>
+      <c r="B396" t="s">
+        <v>6</v>
+      </c>
+      <c r="C396">
+        <v>27</v>
+      </c>
+      <c r="D396" t="s">
+        <v>14</v>
+      </c>
+      <c r="E396">
+        <v>6</v>
+      </c>
+      <c r="F396" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6">
+      <c r="A397">
+        <v>2012</v>
+      </c>
+      <c r="B397" t="s">
+        <v>6</v>
+      </c>
+      <c r="C397">
+        <v>28</v>
+      </c>
+      <c r="D397" t="s">
+        <v>14</v>
+      </c>
+      <c r="E397">
+        <v>0</v>
+      </c>
+      <c r="F397" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6">
+      <c r="A398">
+        <v>2012</v>
+      </c>
+      <c r="B398" t="s">
+        <v>6</v>
+      </c>
+      <c r="C398">
+        <v>29</v>
+      </c>
+      <c r="D398" t="s">
+        <v>14</v>
+      </c>
+      <c r="E398">
+        <v>19</v>
+      </c>
+      <c r="F398" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6">
+      <c r="A399">
+        <v>2012</v>
+      </c>
+      <c r="B399" t="s">
+        <v>6</v>
+      </c>
+      <c r="C399">
+        <v>30</v>
+      </c>
+      <c r="D399" t="s">
+        <v>14</v>
+      </c>
+      <c r="E399">
+        <v>60</v>
+      </c>
+      <c r="F399" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6">
+      <c r="A400">
+        <v>2012</v>
+      </c>
+      <c r="B400" t="s">
+        <v>6</v>
+      </c>
+      <c r="C400">
+        <v>31</v>
+      </c>
+      <c r="D400" t="s">
+        <v>14</v>
+      </c>
+      <c r="E400">
+        <v>4</v>
+      </c>
+      <c r="F400" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6">
+      <c r="A401">
+        <v>2012</v>
+      </c>
+      <c r="B401" t="s">
+        <v>6</v>
+      </c>
+      <c r="C401">
+        <v>32</v>
+      </c>
+      <c r="D401" t="s">
+        <v>14</v>
+      </c>
+      <c r="E401">
+        <v>5</v>
+      </c>
+      <c r="F401" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6">
+      <c r="A402">
+        <v>2012</v>
+      </c>
+      <c r="B402" t="s">
+        <v>6</v>
+      </c>
+      <c r="C402">
+        <v>33</v>
+      </c>
+      <c r="D402" t="s">
+        <v>14</v>
+      </c>
+      <c r="E402">
+        <v>22</v>
+      </c>
+      <c r="F402" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6">
+      <c r="A403">
+        <v>2012</v>
+      </c>
+      <c r="B403" t="s">
+        <v>6</v>
+      </c>
+      <c r="C403">
+        <v>34</v>
+      </c>
+      <c r="D403" t="s">
+        <v>14</v>
+      </c>
+      <c r="E403">
+        <v>17</v>
+      </c>
+      <c r="F403" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6">
+      <c r="A404">
+        <v>2012</v>
+      </c>
+      <c r="B404" t="s">
+        <v>6</v>
+      </c>
+      <c r="C404">
+        <v>35</v>
+      </c>
+      <c r="D404" t="s">
+        <v>14</v>
+      </c>
+      <c r="E404">
+        <v>0</v>
+      </c>
+      <c r="F404" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6">
+      <c r="A405">
+        <v>2012</v>
+      </c>
+      <c r="B405" t="s">
+        <v>6</v>
+      </c>
+      <c r="C405">
+        <v>36</v>
+      </c>
+      <c r="D405" t="s">
+        <v>14</v>
+      </c>
+      <c r="E405">
+        <v>14</v>
+      </c>
+      <c r="F405" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6">
+      <c r="A406">
+        <v>2012</v>
+      </c>
+      <c r="B406" t="s">
+        <v>6</v>
+      </c>
+      <c r="C406">
+        <v>37</v>
+      </c>
+      <c r="D406" t="s">
+        <v>14</v>
+      </c>
+      <c r="E406">
+        <v>16</v>
+      </c>
+      <c r="F406" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6">
+      <c r="A407">
+        <v>2012</v>
+      </c>
+      <c r="B407" t="s">
+        <v>6</v>
+      </c>
+      <c r="C407">
+        <v>38</v>
+      </c>
+      <c r="D407" t="s">
+        <v>14</v>
+      </c>
+      <c r="E407">
+        <v>4</v>
+      </c>
+      <c r="F407" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6">
+      <c r="A408">
+        <v>2012</v>
+      </c>
+      <c r="B408" t="s">
+        <v>6</v>
+      </c>
+      <c r="C408">
+        <v>39</v>
+      </c>
+      <c r="D408" t="s">
+        <v>14</v>
+      </c>
+      <c r="E408">
+        <v>19</v>
+      </c>
+      <c r="F408" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6">
+      <c r="A409">
+        <v>2012</v>
+      </c>
+      <c r="B409" t="s">
+        <v>6</v>
+      </c>
+      <c r="C409">
+        <v>40</v>
+      </c>
+      <c r="D409" t="s">
+        <v>14</v>
+      </c>
+      <c r="E409">
+        <v>2</v>
+      </c>
+      <c r="F409" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6">
+      <c r="A410">
+        <v>2012</v>
+      </c>
+      <c r="B410" t="s">
+        <v>6</v>
+      </c>
+      <c r="C410">
+        <v>41</v>
+      </c>
+      <c r="D410" t="s">
+        <v>14</v>
+      </c>
+      <c r="E410">
+        <v>15</v>
+      </c>
+      <c r="F410" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6">
+      <c r="A411">
+        <v>2012</v>
+      </c>
+      <c r="B411" t="s">
+        <v>6</v>
+      </c>
+      <c r="C411">
+        <v>42</v>
+      </c>
+      <c r="D411" t="s">
+        <v>14</v>
+      </c>
+      <c r="E411">
+        <v>30</v>
+      </c>
+      <c r="F411" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6">
+      <c r="A412">
+        <v>2012</v>
+      </c>
+      <c r="B412" t="s">
+        <v>6</v>
+      </c>
+      <c r="C412">
+        <v>43</v>
+      </c>
+      <c r="D412" t="s">
+        <v>14</v>
+      </c>
+      <c r="E412">
+        <v>25</v>
+      </c>
+      <c r="F412" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6">
+      <c r="A413">
+        <v>2012</v>
+      </c>
+      <c r="B413" t="s">
+        <v>6</v>
+      </c>
+      <c r="C413">
+        <v>44</v>
+      </c>
+      <c r="D413" t="s">
+        <v>14</v>
+      </c>
+      <c r="E413">
+        <v>24</v>
+      </c>
+      <c r="F413" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6">
+      <c r="A414">
+        <v>2012</v>
+      </c>
+      <c r="B414" t="s">
+        <v>6</v>
+      </c>
+      <c r="C414">
+        <v>45</v>
+      </c>
+      <c r="D414" t="s">
+        <v>14</v>
+      </c>
+      <c r="E414">
+        <v>6</v>
+      </c>
+      <c r="F414" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6">
+      <c r="A415">
+        <v>2012</v>
+      </c>
+      <c r="B415" t="s">
+        <v>6</v>
+      </c>
+      <c r="C415">
+        <v>46</v>
+      </c>
+      <c r="D415" t="s">
+        <v>14</v>
+      </c>
+      <c r="E415">
+        <v>1</v>
+      </c>
+      <c r="F415" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6">
+      <c r="A416">
+        <v>2012</v>
+      </c>
+      <c r="B416" t="s">
+        <v>6</v>
+      </c>
+      <c r="C416">
+        <v>47</v>
+      </c>
+      <c r="D416" t="s">
+        <v>14</v>
+      </c>
+      <c r="E416">
+        <v>6</v>
+      </c>
+      <c r="F416" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6">
+      <c r="A417">
+        <v>2012</v>
+      </c>
+      <c r="B417" t="s">
+        <v>6</v>
+      </c>
+      <c r="C417">
+        <v>48</v>
+      </c>
+      <c r="D417" t="s">
+        <v>14</v>
+      </c>
+      <c r="E417">
+        <v>34</v>
+      </c>
+      <c r="F417" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6">
+      <c r="A418">
+        <v>2012</v>
+      </c>
+      <c r="B418" t="s">
+        <v>6</v>
+      </c>
+      <c r="C418">
+        <v>49</v>
+      </c>
+      <c r="D418" t="s">
+        <v>14</v>
+      </c>
+      <c r="E418">
+        <v>42</v>
+      </c>
+      <c r="F418" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6">
+      <c r="A419">
+        <v>2012</v>
+      </c>
+      <c r="B419" t="s">
+        <v>6</v>
+      </c>
+      <c r="C419">
+        <v>50</v>
+      </c>
+      <c r="D419" t="s">
+        <v>14</v>
+      </c>
+      <c r="E419">
+        <v>0</v>
+      </c>
+      <c r="F419" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6">
+      <c r="A420">
+        <v>2012</v>
+      </c>
+      <c r="B420" t="s">
+        <v>6</v>
+      </c>
+      <c r="C420">
+        <v>51</v>
+      </c>
+      <c r="D420" t="s">
+        <v>14</v>
+      </c>
+      <c r="E420">
+        <v>7</v>
+      </c>
+      <c r="F420" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6">
+      <c r="A421">
+        <v>2012</v>
+      </c>
+      <c r="B421" t="s">
+        <v>6</v>
+      </c>
+      <c r="C421">
+        <v>52</v>
+      </c>
+      <c r="D421" t="s">
+        <v>14</v>
+      </c>
+      <c r="E421">
+        <v>0</v>
+      </c>
+      <c r="F421" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6">
+      <c r="A422">
+        <v>2012</v>
+      </c>
+      <c r="B422" t="s">
+        <v>6</v>
+      </c>
+      <c r="C422">
+        <v>53</v>
+      </c>
+      <c r="D422" t="s">
+        <v>14</v>
+      </c>
+      <c r="E422">
+        <v>36</v>
+      </c>
+      <c r="F422" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6">
+      <c r="A423">
+        <v>2012</v>
+      </c>
+      <c r="B423" t="s">
+        <v>6</v>
+      </c>
+      <c r="C423">
+        <v>54</v>
+      </c>
+      <c r="D423" t="s">
+        <v>14</v>
+      </c>
+      <c r="E423">
+        <v>1</v>
+      </c>
+      <c r="F423" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6">
+      <c r="A424">
+        <v>2012</v>
+      </c>
+      <c r="B424" t="s">
+        <v>6</v>
+      </c>
+      <c r="C424">
+        <v>55</v>
+      </c>
+      <c r="D424" t="s">
+        <v>14</v>
+      </c>
+      <c r="E424">
+        <v>3</v>
+      </c>
+      <c r="F424" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6">
+      <c r="A425">
+        <v>2012</v>
+      </c>
+      <c r="B425" t="s">
+        <v>6</v>
+      </c>
+      <c r="C425">
+        <v>56</v>
+      </c>
+      <c r="D425" t="s">
+        <v>14</v>
+      </c>
+      <c r="E425">
+        <v>13</v>
+      </c>
+      <c r="F425" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6">
+      <c r="A426">
+        <v>2012</v>
+      </c>
+      <c r="B426" t="s">
+        <v>6</v>
+      </c>
+      <c r="C426">
+        <v>57</v>
+      </c>
+      <c r="D426" t="s">
+        <v>14</v>
+      </c>
+      <c r="E426">
+        <v>17</v>
+      </c>
+      <c r="F426" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6">
+      <c r="A427">
+        <v>2012</v>
+      </c>
+      <c r="B427" t="s">
+        <v>6</v>
+      </c>
+      <c r="C427">
+        <v>58</v>
+      </c>
+      <c r="D427" t="s">
+        <v>14</v>
+      </c>
+      <c r="E427">
+        <v>3</v>
+      </c>
+      <c r="F427" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6">
+      <c r="A428">
+        <v>2012</v>
+      </c>
+      <c r="B428" t="s">
+        <v>6</v>
+      </c>
+      <c r="C428">
+        <v>59</v>
+      </c>
+      <c r="D428" t="s">
+        <v>14</v>
+      </c>
+      <c r="E428">
+        <v>44</v>
+      </c>
+      <c r="F428" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6">
+      <c r="A429">
+        <v>2012</v>
+      </c>
+      <c r="B429" t="s">
+        <v>6</v>
+      </c>
+      <c r="C429">
+        <v>60</v>
+      </c>
+      <c r="D429" t="s">
+        <v>14</v>
+      </c>
+      <c r="E429">
+        <v>35</v>
+      </c>
+      <c r="F429" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6">
+      <c r="A430">
+        <v>2013</v>
+      </c>
+      <c r="B430" t="s">
+        <v>6</v>
+      </c>
+      <c r="C430">
+        <v>1</v>
+      </c>
+      <c r="D430" t="s">
+        <v>15</v>
+      </c>
+      <c r="E430">
+        <v>19</v>
+      </c>
+      <c r="F430" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6">
+      <c r="A431">
+        <v>2013</v>
+      </c>
+      <c r="B431" t="s">
+        <v>6</v>
+      </c>
+      <c r="C431">
+        <v>2</v>
+      </c>
+      <c r="D431" t="s">
+        <v>15</v>
+      </c>
+      <c r="E431">
+        <v>15</v>
+      </c>
+      <c r="F431" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6">
+      <c r="A432">
+        <v>2013</v>
+      </c>
+      <c r="B432" t="s">
+        <v>6</v>
+      </c>
+      <c r="C432">
+        <v>3</v>
+      </c>
+      <c r="D432" t="s">
+        <v>15</v>
+      </c>
+      <c r="E432">
+        <v>9</v>
+      </c>
+      <c r="F432" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6">
+      <c r="A433">
+        <v>2013</v>
+      </c>
+      <c r="B433" t="s">
+        <v>6</v>
+      </c>
+      <c r="C433">
+        <v>4</v>
+      </c>
+      <c r="D433" t="s">
+        <v>15</v>
+      </c>
+      <c r="E433">
+        <v>24</v>
+      </c>
+      <c r="F433" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6">
+      <c r="A434">
+        <v>2013</v>
+      </c>
+      <c r="B434" t="s">
+        <v>6</v>
+      </c>
+      <c r="C434">
+        <v>5</v>
+      </c>
+      <c r="D434" t="s">
+        <v>15</v>
+      </c>
+      <c r="E434">
+        <v>5</v>
+      </c>
+      <c r="F434" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6">
+      <c r="A435">
+        <v>2013</v>
+      </c>
+      <c r="B435" t="s">
+        <v>6</v>
+      </c>
+      <c r="C435">
+        <v>6</v>
+      </c>
+      <c r="D435" t="s">
+        <v>15</v>
+      </c>
+      <c r="E435">
+        <v>1</v>
+      </c>
+      <c r="F435" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6">
+      <c r="A436">
+        <v>2013</v>
+      </c>
+      <c r="B436" t="s">
+        <v>6</v>
+      </c>
+      <c r="C436">
+        <v>7</v>
+      </c>
+      <c r="D436" t="s">
+        <v>15</v>
+      </c>
+      <c r="E436">
+        <v>0</v>
+      </c>
+      <c r="F436" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6">
+      <c r="A437">
+        <v>2013</v>
+      </c>
+      <c r="B437" t="s">
+        <v>6</v>
+      </c>
+      <c r="C437">
+        <v>8</v>
+      </c>
+      <c r="D437" t="s">
+        <v>15</v>
+      </c>
+      <c r="E437">
+        <v>4</v>
+      </c>
+      <c r="F437" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6">
+      <c r="A438">
+        <v>2013</v>
+      </c>
+      <c r="B438" t="s">
+        <v>6</v>
+      </c>
+      <c r="C438">
+        <v>9</v>
+      </c>
+      <c r="D438" t="s">
+        <v>15</v>
+      </c>
+      <c r="E438">
+        <v>14</v>
+      </c>
+      <c r="F438" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6">
+      <c r="A439">
+        <v>2013</v>
+      </c>
+      <c r="B439" t="s">
+        <v>6</v>
+      </c>
+      <c r="C439">
+        <v>10</v>
+      </c>
+      <c r="D439" t="s">
+        <v>15</v>
+      </c>
+      <c r="E439">
+        <v>20</v>
+      </c>
+      <c r="F439" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6">
+      <c r="A440">
+        <v>2013</v>
+      </c>
+      <c r="B440" t="s">
+        <v>6</v>
+      </c>
+      <c r="C440">
+        <v>11</v>
+      </c>
+      <c r="D440" t="s">
+        <v>15</v>
+      </c>
+      <c r="E440">
+        <v>1</v>
+      </c>
+      <c r="F440" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6">
+      <c r="A441">
+        <v>2013</v>
+      </c>
+      <c r="B441" t="s">
+        <v>6</v>
+      </c>
+      <c r="C441">
+        <v>12</v>
+      </c>
+      <c r="D441" t="s">
+        <v>15</v>
+      </c>
+      <c r="E441">
+        <v>16</v>
+      </c>
+      <c r="F441" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6">
+      <c r="A442">
+        <v>2013</v>
+      </c>
+      <c r="B442" t="s">
+        <v>6</v>
+      </c>
+      <c r="C442">
+        <v>13</v>
+      </c>
+      <c r="D442" t="s">
+        <v>15</v>
+      </c>
+      <c r="E442">
+        <v>10</v>
+      </c>
+      <c r="F442" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6">
+      <c r="A443">
+        <v>2013</v>
+      </c>
+      <c r="B443" t="s">
+        <v>6</v>
+      </c>
+      <c r="C443">
+        <v>14</v>
+      </c>
+      <c r="D443" t="s">
+        <v>15</v>
+      </c>
+      <c r="E443">
+        <v>4</v>
+      </c>
+      <c r="F443" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6">
+      <c r="A444">
+        <v>2013</v>
+      </c>
+      <c r="B444" t="s">
+        <v>6</v>
+      </c>
+      <c r="C444">
+        <v>15</v>
+      </c>
+      <c r="D444" t="s">
+        <v>15</v>
+      </c>
+      <c r="E444">
+        <v>13</v>
+      </c>
+      <c r="F444" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6">
+      <c r="A445">
+        <v>2013</v>
+      </c>
+      <c r="B445" t="s">
+        <v>6</v>
+      </c>
+      <c r="C445">
+        <v>16</v>
+      </c>
+      <c r="D445" t="s">
+        <v>15</v>
+      </c>
+      <c r="E445">
+        <v>3</v>
+      </c>
+      <c r="F445" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6">
+      <c r="A446">
+        <v>2013</v>
+      </c>
+      <c r="B446" t="s">
+        <v>6</v>
+      </c>
+      <c r="C446">
+        <v>17</v>
+      </c>
+      <c r="D446" t="s">
+        <v>15</v>
+      </c>
+      <c r="E446">
+        <v>13</v>
+      </c>
+      <c r="F446" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6">
+      <c r="A447">
+        <v>2013</v>
+      </c>
+      <c r="B447" t="s">
+        <v>6</v>
+      </c>
+      <c r="C447">
+        <v>18</v>
+      </c>
+      <c r="D447" t="s">
+        <v>15</v>
+      </c>
+      <c r="E447">
+        <v>0</v>
+      </c>
+      <c r="F447" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6">
+      <c r="A448">
+        <v>2013</v>
+      </c>
+      <c r="B448" t="s">
+        <v>6</v>
+      </c>
+      <c r="C448">
+        <v>19</v>
+      </c>
+      <c r="D448" t="s">
+        <v>15</v>
+      </c>
+      <c r="E448">
+        <v>14</v>
+      </c>
+      <c r="F448" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6">
+      <c r="A449">
+        <v>2013</v>
+      </c>
+      <c r="B449" t="s">
+        <v>6</v>
+      </c>
+      <c r="C449">
+        <v>20</v>
+      </c>
+      <c r="D449" t="s">
+        <v>15</v>
+      </c>
+      <c r="E449">
+        <v>34</v>
+      </c>
+      <c r="F449" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6">
+      <c r="A450">
+        <v>2013</v>
+      </c>
+      <c r="B450" t="s">
+        <v>6</v>
+      </c>
+      <c r="C450">
+        <v>21</v>
+      </c>
+      <c r="D450" t="s">
+        <v>15</v>
+      </c>
+      <c r="E450">
+        <v>58</v>
+      </c>
+      <c r="F450" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6">
+      <c r="A451">
+        <v>2013</v>
+      </c>
+      <c r="B451" t="s">
+        <v>6</v>
+      </c>
+      <c r="C451">
+        <v>22</v>
+      </c>
+      <c r="D451" t="s">
+        <v>15</v>
+      </c>
+      <c r="E451">
+        <v>0</v>
+      </c>
+      <c r="F451" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6">
+      <c r="A452">
+        <v>2013</v>
+      </c>
+      <c r="B452" t="s">
+        <v>6</v>
+      </c>
+      <c r="C452">
+        <v>23</v>
+      </c>
+      <c r="D452" t="s">
+        <v>15</v>
+      </c>
+      <c r="E452">
+        <v>17</v>
+      </c>
+      <c r="F452" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6">
+      <c r="A453">
+        <v>2013</v>
+      </c>
+      <c r="B453" t="s">
+        <v>6</v>
+      </c>
+      <c r="C453">
+        <v>24</v>
+      </c>
+      <c r="D453" t="s">
+        <v>15</v>
+      </c>
+      <c r="E453">
+        <v>8</v>
+      </c>
+      <c r="F453" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6">
+      <c r="A454">
+        <v>2013</v>
+      </c>
+      <c r="B454" t="s">
+        <v>6</v>
+      </c>
+      <c r="C454">
+        <v>25</v>
+      </c>
+      <c r="D454" t="s">
+        <v>15</v>
+      </c>
+      <c r="E454">
+        <v>5</v>
+      </c>
+      <c r="F454" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6">
+      <c r="A455">
+        <v>2013</v>
+      </c>
+      <c r="B455" t="s">
+        <v>6</v>
+      </c>
+      <c r="C455">
+        <v>26</v>
+      </c>
+      <c r="D455" t="s">
+        <v>15</v>
+      </c>
+      <c r="E455">
+        <v>12</v>
+      </c>
+      <c r="F455" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6">
+      <c r="A456">
+        <v>2013</v>
+      </c>
+      <c r="B456" t="s">
+        <v>6</v>
+      </c>
+      <c r="C456">
+        <v>27</v>
+      </c>
+      <c r="D456" t="s">
+        <v>15</v>
+      </c>
+      <c r="E456">
+        <v>3</v>
+      </c>
+      <c r="F456" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6">
+      <c r="A457">
+        <v>2013</v>
+      </c>
+      <c r="B457" t="s">
+        <v>6</v>
+      </c>
+      <c r="C457">
+        <v>28</v>
+      </c>
+      <c r="D457" t="s">
+        <v>15</v>
+      </c>
+      <c r="E457">
+        <v>0</v>
+      </c>
+      <c r="F457" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6">
+      <c r="A458">
+        <v>2013</v>
+      </c>
+      <c r="B458" t="s">
+        <v>6</v>
+      </c>
+      <c r="C458">
+        <v>29</v>
+      </c>
+      <c r="D458" t="s">
+        <v>15</v>
+      </c>
+      <c r="E458">
+        <v>1</v>
+      </c>
+      <c r="F458" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6">
+      <c r="A459">
+        <v>2013</v>
+      </c>
+      <c r="B459" t="s">
+        <v>6</v>
+      </c>
+      <c r="C459">
+        <v>30</v>
+      </c>
+      <c r="D459" t="s">
+        <v>15</v>
+      </c>
+      <c r="E459">
+        <v>0</v>
+      </c>
+      <c r="F459" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6">
+      <c r="A460">
+        <v>2013</v>
+      </c>
+      <c r="B460" t="s">
+        <v>6</v>
+      </c>
+      <c r="C460">
+        <v>31</v>
+      </c>
+      <c r="D460" t="s">
+        <v>15</v>
+      </c>
+      <c r="E460">
+        <v>3</v>
+      </c>
+      <c r="F460" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6">
+      <c r="A461">
+        <v>2013</v>
+      </c>
+      <c r="B461" t="s">
+        <v>6</v>
+      </c>
+      <c r="C461">
+        <v>32</v>
+      </c>
+      <c r="D461" t="s">
+        <v>15</v>
+      </c>
+      <c r="E461">
+        <v>24</v>
+      </c>
+      <c r="F461" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6">
+      <c r="A462">
+        <v>2013</v>
+      </c>
+      <c r="B462" t="s">
+        <v>6</v>
+      </c>
+      <c r="C462">
+        <v>33</v>
+      </c>
+      <c r="D462" t="s">
+        <v>15</v>
+      </c>
+      <c r="E462">
+        <v>52</v>
+      </c>
+      <c r="F462" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6">
+      <c r="A463">
+        <v>2013</v>
+      </c>
+      <c r="B463" t="s">
+        <v>6</v>
+      </c>
+      <c r="C463">
+        <v>34</v>
+      </c>
+      <c r="D463" t="s">
+        <v>15</v>
+      </c>
+      <c r="E463">
+        <v>14</v>
+      </c>
+      <c r="F463" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6">
+      <c r="A464">
+        <v>2013</v>
+      </c>
+      <c r="B464" t="s">
+        <v>6</v>
+      </c>
+      <c r="C464">
+        <v>35</v>
+      </c>
+      <c r="D464" t="s">
+        <v>15</v>
+      </c>
+      <c r="E464">
+        <v>34</v>
+      </c>
+      <c r="F464" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6">
+      <c r="A465">
+        <v>2013</v>
+      </c>
+      <c r="B465" t="s">
+        <v>6</v>
+      </c>
+      <c r="C465">
+        <v>36</v>
+      </c>
+      <c r="D465" t="s">
+        <v>15</v>
+      </c>
+      <c r="E465">
+        <v>30</v>
+      </c>
+      <c r="F465" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6">
+      <c r="A466">
+        <v>2013</v>
+      </c>
+      <c r="B466" t="s">
+        <v>6</v>
+      </c>
+      <c r="C466">
+        <v>37</v>
+      </c>
+      <c r="D466" t="s">
+        <v>15</v>
+      </c>
+      <c r="E466">
+        <v>4</v>
+      </c>
+      <c r="F466" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6">
+      <c r="A467">
+        <v>2013</v>
+      </c>
+      <c r="B467" t="s">
+        <v>6</v>
+      </c>
+      <c r="C467">
+        <v>38</v>
+      </c>
+      <c r="D467" t="s">
+        <v>15</v>
+      </c>
+      <c r="E467">
+        <v>0</v>
+      </c>
+      <c r="F467" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6">
+      <c r="A468">
+        <v>2013</v>
+      </c>
+      <c r="B468" t="s">
+        <v>6</v>
+      </c>
+      <c r="C468">
+        <v>39</v>
+      </c>
+      <c r="D468" t="s">
+        <v>15</v>
+      </c>
+      <c r="E468">
+        <v>0</v>
+      </c>
+      <c r="F468" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6">
+      <c r="A469">
+        <v>2013</v>
+      </c>
+      <c r="B469" t="s">
+        <v>6</v>
+      </c>
+      <c r="C469">
+        <v>40</v>
+      </c>
+      <c r="D469" t="s">
+        <v>15</v>
+      </c>
+      <c r="E469">
+        <v>5</v>
+      </c>
+      <c r="F469" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6">
+      <c r="A470">
+        <v>2013</v>
+      </c>
+      <c r="B470" t="s">
+        <v>6</v>
+      </c>
+      <c r="C470">
+        <v>41</v>
+      </c>
+      <c r="D470" t="s">
+        <v>15</v>
+      </c>
+      <c r="E470">
+        <v>25</v>
+      </c>
+      <c r="F470" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6">
+      <c r="A471">
+        <v>2013</v>
+      </c>
+      <c r="B471" t="s">
+        <v>6</v>
+      </c>
+      <c r="C471">
+        <v>42</v>
+      </c>
+      <c r="D471" t="s">
+        <v>15</v>
+      </c>
+      <c r="E471">
+        <v>3</v>
+      </c>
+      <c r="F471" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6">
+      <c r="A472">
+        <v>2013</v>
+      </c>
+      <c r="B472" t="s">
+        <v>6</v>
+      </c>
+      <c r="C472">
+        <v>43</v>
+      </c>
+      <c r="D472" t="s">
+        <v>15</v>
+      </c>
+      <c r="E472">
+        <v>7</v>
+      </c>
+      <c r="F472" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6">
+      <c r="A473">
+        <v>2013</v>
+      </c>
+      <c r="B473" t="s">
+        <v>6</v>
+      </c>
+      <c r="C473">
+        <v>44</v>
+      </c>
+      <c r="D473" t="s">
+        <v>15</v>
+      </c>
+      <c r="E473">
+        <v>0</v>
+      </c>
+      <c r="F473" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6">
+      <c r="A474">
+        <v>2013</v>
+      </c>
+      <c r="B474" t="s">
+        <v>6</v>
+      </c>
+      <c r="C474">
+        <v>45</v>
+      </c>
+      <c r="D474" t="s">
+        <v>15</v>
+      </c>
+      <c r="E474">
+        <v>22</v>
+      </c>
+      <c r="F474" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6">
+      <c r="A475">
+        <v>2013</v>
+      </c>
+      <c r="B475" t="s">
+        <v>6</v>
+      </c>
+      <c r="C475">
+        <v>46</v>
+      </c>
+      <c r="D475" t="s">
+        <v>15</v>
+      </c>
+      <c r="E475">
+        <v>24</v>
+      </c>
+      <c r="F475" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6">
+      <c r="A476">
+        <v>2013</v>
+      </c>
+      <c r="B476" t="s">
+        <v>6</v>
+      </c>
+      <c r="C476">
+        <v>47</v>
+      </c>
+      <c r="D476" t="s">
+        <v>15</v>
+      </c>
+      <c r="E476">
+        <v>30</v>
+      </c>
+      <c r="F476" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6">
+      <c r="A477">
+        <v>2013</v>
+      </c>
+      <c r="B477" t="s">
+        <v>6</v>
+      </c>
+      <c r="C477">
+        <v>48</v>
+      </c>
+      <c r="D477" t="s">
+        <v>15</v>
+      </c>
+      <c r="E477">
+        <v>0</v>
+      </c>
+      <c r="F477" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6">
+      <c r="A478">
+        <v>2013</v>
+      </c>
+      <c r="B478" t="s">
+        <v>6</v>
+      </c>
+      <c r="C478">
+        <v>49</v>
+      </c>
+      <c r="D478" t="s">
+        <v>15</v>
+      </c>
+      <c r="E478">
+        <v>4</v>
+      </c>
+      <c r="F478" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6">
+      <c r="A479">
+        <v>2013</v>
+      </c>
+      <c r="B479" t="s">
+        <v>6</v>
+      </c>
+      <c r="C479">
+        <v>50</v>
+      </c>
+      <c r="D479" t="s">
+        <v>15</v>
+      </c>
+      <c r="E479">
+        <v>22</v>
+      </c>
+      <c r="F479" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6">
+      <c r="A480">
+        <v>2013</v>
+      </c>
+      <c r="B480" t="s">
+        <v>6</v>
+      </c>
+      <c r="C480">
+        <v>51</v>
+      </c>
+      <c r="D480" t="s">
+        <v>15</v>
+      </c>
+      <c r="E480">
+        <v>6</v>
+      </c>
+      <c r="F480" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6">
+      <c r="A481">
+        <v>2013</v>
+      </c>
+      <c r="B481" t="s">
+        <v>6</v>
+      </c>
+      <c r="C481">
+        <v>52</v>
+      </c>
+      <c r="D481" t="s">
+        <v>15</v>
+      </c>
+      <c r="E481">
+        <v>0</v>
+      </c>
+      <c r="F481" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6">
+      <c r="A482">
+        <v>2013</v>
+      </c>
+      <c r="B482" t="s">
+        <v>6</v>
+      </c>
+      <c r="C482">
+        <v>53</v>
+      </c>
+      <c r="D482" t="s">
+        <v>15</v>
+      </c>
+      <c r="E482">
+        <v>0</v>
+      </c>
+      <c r="F482" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6">
+      <c r="A483">
+        <v>2013</v>
+      </c>
+      <c r="B483" t="s">
+        <v>6</v>
+      </c>
+      <c r="C483">
+        <v>54</v>
+      </c>
+      <c r="D483" t="s">
+        <v>15</v>
+      </c>
+      <c r="E483">
+        <v>10</v>
+      </c>
+      <c r="F483" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6">
+      <c r="A484">
+        <v>2013</v>
+      </c>
+      <c r="B484" t="s">
+        <v>6</v>
+      </c>
+      <c r="C484">
+        <v>55</v>
+      </c>
+      <c r="D484" t="s">
+        <v>15</v>
+      </c>
+      <c r="E484">
+        <v>20</v>
+      </c>
+      <c r="F484" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6">
+      <c r="A485">
+        <v>2013</v>
+      </c>
+      <c r="B485" t="s">
+        <v>6</v>
+      </c>
+      <c r="C485">
+        <v>56</v>
+      </c>
+      <c r="D485" t="s">
+        <v>15</v>
+      </c>
+      <c r="E485">
+        <v>9</v>
+      </c>
+      <c r="F485" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6">
+      <c r="A486">
+        <v>2013</v>
+      </c>
+      <c r="B486" t="s">
+        <v>6</v>
+      </c>
+      <c r="C486">
+        <v>57</v>
+      </c>
+      <c r="D486" t="s">
+        <v>15</v>
+      </c>
+      <c r="E486">
+        <v>30</v>
+      </c>
+      <c r="F486" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6">
+      <c r="A487">
+        <v>2013</v>
+      </c>
+      <c r="B487" t="s">
+        <v>6</v>
+      </c>
+      <c r="C487">
+        <v>58</v>
+      </c>
+      <c r="D487" t="s">
+        <v>15</v>
+      </c>
+      <c r="E487">
+        <v>17</v>
+      </c>
+      <c r="F487" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6">
+      <c r="A488">
+        <v>2013</v>
+      </c>
+      <c r="B488" t="s">
+        <v>6</v>
+      </c>
+      <c r="C488">
+        <v>59</v>
+      </c>
+      <c r="D488" t="s">
+        <v>15</v>
+      </c>
+      <c r="E488">
+        <v>7</v>
+      </c>
+      <c r="F488" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6">
+      <c r="A489">
+        <v>2013</v>
+      </c>
+      <c r="B489" t="s">
+        <v>6</v>
+      </c>
+      <c r="C489">
+        <v>60</v>
+      </c>
+      <c r="D489" t="s">
+        <v>15</v>
+      </c>
+      <c r="E489">
+        <v>13</v>
+      </c>
+      <c r="F489" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Mussel dots/Mussel from monitoring in Kandalaksha.xlsx
+++ b/Mussel dots/Mussel from monitoring in Kandalaksha.xlsx
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -80,6 +80,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -99,43 +107,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -152,61 +123,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,7 +146,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,7 +236,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,7 +284,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,37 +308,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,31 +320,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,25 +344,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,7 +368,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,19 +380,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,13 +398,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,74 +427,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -527,12 +459,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -541,139 +541,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1003,9 +1003,9 @@
   <dimension ref="A1:F489"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A462" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A468" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B489" sqref="B489"/>
+      <selection pane="bottomLeft" activeCell="C495" sqref="C495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
